--- a/TestDatas/test_apidata.xlsx
+++ b/TestDatas/test_apidata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="7584" activeTab="1"/>
+    <workbookView windowWidth="20328" windowHeight="8484" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="100">
   <si>
     <t>conf_key</t>
   </si>
@@ -76,40 +76,187 @@
     <t>method</t>
   </si>
   <si>
+    <t>request_key</t>
+  </si>
+  <si>
+    <t>request_data</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>return_code</t>
+  </si>
+  <si>
+    <t>return_values</t>
+  </si>
+  <si>
+    <t>seturl</t>
+  </si>
+  <si>
+    <t>${base_url}</t>
+  </si>
+  <si>
+    <t>create_session</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>setproxy</t>
+  </si>
+  <si>
+    <t>s1,https</t>
+  </si>
+  <si>
+    <t>setheader</t>
+  </si>
+  <si>
+    <t>s1,Accept</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>savejson</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>${user}</t>
+  </si>
+  <si>
+    <t>get_api</t>
+  </si>
+  <si>
+    <t>s1,get</t>
+  </si>
+  <si>
+    <t>save2dict</t>
+  </si>
+  <si>
+    <t>auser</t>
+  </si>
+  <si>
+    <t>=hh</t>
+  </si>
+  <si>
+    <t>post_api</t>
+  </si>
+  <si>
+    <t>s1,post</t>
+  </si>
+  <si>
+    <t>zss=${auser}</t>
+  </si>
+  <si>
+    <t>s1,get/${auser}</t>
+  </si>
+  <si>
+    <t>{'Accept11':'11*/*'}</t>
+  </si>
+  <si>
+    <t>buser</t>
+  </si>
+  <si>
+    <t>headers,X-Amzn-Trace-Id</t>
+  </si>
+  <si>
+    <t>assertInJson</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>118.159.231.128</t>
+  </si>
+  <si>
+    <t>assertAbsPath</t>
+  </si>
+  <si>
+    <t>headers.Host</t>
+  </si>
+  <si>
+    <t>httpbin.org</t>
+  </si>
+  <si>
+    <t>assertResp2Json</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>assertMatch2Json</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>{'Accept':'*/*'}</t>
+  </si>
+  <si>
     <t>input</t>
   </si>
   <si>
-    <t>request_data</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>return_code</t>
-  </si>
-  <si>
-    <t>return_values</t>
-  </si>
-  <si>
     <t>充1</t>
   </si>
   <si>
-    <t>seturl</t>
-  </si>
-  <si>
-    <t>${base_url}</t>
-  </si>
-  <si>
     <t>充2</t>
   </si>
   <si>
-    <t>save2dict</t>
-  </si>
-  <si>
-    <t>auser</t>
+    <t>saveparam</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>xx@162.com</t>
+  </si>
+  <si>
+    <t>充3</t>
+  </si>
+  <si>
+    <t>token1xcode</t>
+  </si>
+  <si>
+    <t>充4</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>a=xxxxxx</t>
+  </si>
+  <si>
+    <t>充5</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>充6</t>
+  </si>
+  <si>
+    <t>post_pi</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>${next}</t>
+  </si>
+  <si>
+    <t>充7</t>
+  </si>
+  <si>
+    <t>basic-auth</t>
+  </si>
+  <si>
+    <t>${u_a}=${u_b}</t>
   </si>
   <si>
     <t>hh</t>
@@ -118,109 +265,16 @@
     <t>${cc}mm</t>
   </si>
   <si>
-    <t>充3</t>
-  </si>
-  <si>
-    <t>saveparam</t>
-  </si>
-  <si>
     <t>xcode</t>
   </si>
   <si>
-    <t>充4</t>
-  </si>
-  <si>
-    <t>get_api</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>za={'a':'a1'}</t>
   </si>
   <si>
-    <t>充5</t>
-  </si>
-  <si>
-    <t>post_api</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>zss=${auser}</t>
-  </si>
-  <si>
-    <t>充6</t>
-  </si>
-  <si>
     <t>get/${auser}</t>
   </si>
   <si>
-    <t>充7</t>
-  </si>
-  <si>
-    <t>savejson</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>headers,X-Amzn-Trace-Id</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>xx@162.com</t>
-  </si>
-  <si>
-    <t>token1xcode</t>
-  </si>
-  <si>
-    <t>a=xxxxxx</t>
-  </si>
-  <si>
-    <t>post_pi</t>
-  </si>
-  <si>
-    <t>${next}</t>
-  </si>
-  <si>
-    <t>basic-auth</t>
-  </si>
-  <si>
-    <t>${u_a}=${u_b}</t>
-  </si>
-  <si>
-    <t>assertInJson</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
     <t>112.42.5.90</t>
-  </si>
-  <si>
-    <t>assertAbsPath</t>
-  </si>
-  <si>
-    <t>headers.Host</t>
-  </si>
-  <si>
-    <t>httpbin.org</t>
-  </si>
-  <si>
-    <t>assertResp2Json</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>assertMatch2Json</t>
-  </si>
-  <si>
-    <t>headers</t>
   </si>
   <si>
     <t>{'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.24.0', 'X-Amzn-Trace-Id': 'Root=1-61d174dd-65848c8208fd1b2538f132af'}</t>
@@ -270,10 +324,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -301,7 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,27 +363,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +377,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,16 +436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,25 +452,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,8 +473,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,187 +497,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,30 +728,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -709,6 +745,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,6 +797,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -770,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -782,16 +842,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -803,116 +863,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -945,10 +1005,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1359,7 +1425,7 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1370,7 +1436,7 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1381,7 +1447,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1392,7 +1458,7 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1401,12 +1467,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
@@ -1422,10 +1488,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1479,14 +1545,12 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="2"/>
@@ -1501,21 +1565,15 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1527,18 +1585,14 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4">
-        <v>20001</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
@@ -1548,20 +1602,16 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -1575,40 +1625,36 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
@@ -1616,22 +1662,20 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -1639,23 +1683,37 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="6"/>
@@ -1663,52 +1721,138 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1752,7 +1896,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -1778,13 +1922,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="2"/>
@@ -1800,16 +1944,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -1824,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7">
         <v>20001</v>
@@ -1848,16 +1992,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -1872,16 +2016,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -1896,16 +2040,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -1920,16 +2064,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -1972,13 +2116,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
@@ -1994,19 +2138,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -2020,13 +2164,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4">
         <v>20001</v>
@@ -2044,16 +2188,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2068,16 +2212,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2092,13 +2236,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2114,16 +2258,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2138,16 +2282,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
@@ -2162,16 +2306,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="6"/>
@@ -2186,16 +2330,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="6"/>
@@ -2208,16 +2352,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
@@ -2246,7 +2390,7 @@
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -2254,7 +2398,7 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2271,7 +2415,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
@@ -2283,7 +2427,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2294,16 +2438,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2317,16 +2461,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2338,13 +2482,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2359,16 +2503,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2382,16 +2526,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -2405,16 +2549,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -2428,10 +2572,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>

--- a/TestDatas/test_apidata.xlsx
+++ b/TestDatas/test_apidata.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="t_接" sheetId="2" r:id="rId2"/>
-    <sheet name="t_接口py" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="for_t_接" sheetId="5" r:id="rId3"/>
+    <sheet name="t_接口py" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
   <si>
     <t>conf_key</t>
   </si>
@@ -197,6 +198,9 @@
   </si>
   <si>
     <t>{'Accept':'*/*'}</t>
+  </si>
+  <si>
+    <t>for_t_接</t>
   </si>
   <si>
     <t>input</t>
@@ -324,12 +328,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,16 +350,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,8 +372,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -384,30 +395,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,6 +404,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,22 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -466,6 +454,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -476,13 +480,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,31 +508,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,43 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,108 +701,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,6 +745,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -751,48 +801,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,13 +825,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="9">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -842,137 +859,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,13 +1022,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1425,7 +1445,7 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1436,7 +1456,7 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1447,7 +1467,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1458,7 +1478,7 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1467,12 +1487,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
@@ -1488,10 +1508,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1542,10 +1562,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1562,10 +1582,10 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1582,10 +1602,10 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1603,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1622,10 +1642,10 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1644,10 +1664,10 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1664,17 +1684,17 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="2"/>
@@ -1687,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
@@ -1707,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1724,14 +1744,14 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1745,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1764,10 +1784,10 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
@@ -1787,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
@@ -1843,16 +1863,44 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,6 +1910,124 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <cols>
+    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J23"/>
@@ -1896,7 +2062,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -1922,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>25</v>
@@ -1944,16 +2110,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -1968,13 +2134,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7">
         <v>20001</v>
@@ -1992,16 +2158,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -2016,13 +2182,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>48</v>
@@ -2040,16 +2206,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -2064,16 +2230,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -2116,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
@@ -2138,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>39</v>
@@ -2147,10 +2313,10 @@
         <v>40</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -2164,13 +2330,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="4">
         <v>20001</v>
@@ -2188,16 +2354,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2212,13 +2378,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>44</v>
@@ -2236,13 +2402,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2258,13 +2424,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>48</v>
@@ -2282,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>49</v>
@@ -2291,7 +2457,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
@@ -2306,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
@@ -2330,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>55</v>
@@ -2352,7 +2518,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>57</v>
@@ -2361,7 +2527,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
@@ -2377,7 +2543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A8:I20"/>
@@ -2390,7 +2556,7 @@
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -2398,7 +2564,7 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2415,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
@@ -2427,7 +2593,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2438,16 +2604,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2461,16 +2627,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2482,13 +2648,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2503,16 +2669,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2526,16 +2692,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -2549,16 +2715,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -2572,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>

--- a/TestDatas/test_apidata.xlsx
+++ b/TestDatas/test_apidata.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8484" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="t_接" sheetId="2" r:id="rId2"/>
-    <sheet name="for_t_接" sheetId="5" r:id="rId3"/>
-    <sheet name="t_接口py" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="public" sheetId="1" r:id="rId1"/>
+    <sheet name="config_t_接" sheetId="6" r:id="rId2"/>
+    <sheet name="t_接" sheetId="2" r:id="rId3"/>
+    <sheet name="for_t_接" sheetId="5" r:id="rId4"/>
+    <sheet name="t_接口py" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="101">
   <si>
     <t>conf_key</t>
   </si>
@@ -35,37 +36,37 @@
     <t>康</t>
   </si>
   <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>u_a</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>u_b</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>nihao!!!</t>
+  </si>
+  <si>
+    <t>base_url</t>
+  </si>
+  <si>
+    <t>http://httpbin.org</t>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>u_a</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>u_b</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>nihao!!!</t>
-  </si>
-  <si>
-    <t>base_url</t>
-  </si>
-  <si>
-    <t>http://httpbin.org</t>
   </si>
   <si>
     <t>num</t>
@@ -329,8 +330,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -365,15 +366,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,6 +390,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -395,15 +404,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,22 +419,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -447,23 +439,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -487,7 +464,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,13 +521,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,19 +647,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,144 +702,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,9 +745,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,51 +763,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -839,6 +801,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -847,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -859,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1388,7 +1389,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1415,74 +1416,62 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>1234567890</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>410</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1508,10 +1497,131 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.8888888888889" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>410</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="http://httpbin.org"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1562,9 +1672,11 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>25</v>
@@ -1584,7 +1696,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
@@ -1604,7 +1716,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
@@ -1642,9 +1754,11 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
@@ -1666,7 +1780,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>37</v>
@@ -1686,7 +1800,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>39</v>
@@ -1746,7 +1860,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>34</v>
@@ -1786,7 +1900,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>49</v>
@@ -1867,7 +1981,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="12" t="s">
@@ -1885,7 +1999,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4" t="s">
@@ -1909,13 +2023,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1960,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>60</v>
@@ -2002,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>60</v>
@@ -2027,13 +2141,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2085,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>62</v>
@@ -2107,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>63</v>
@@ -2131,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>67</v>
@@ -2155,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>69</v>
@@ -2179,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
@@ -2203,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>74</v>
@@ -2227,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>78</v>
@@ -2279,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>62</v>
@@ -2301,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -2327,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>67</v>
@@ -2351,7 +2465,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
@@ -2375,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>72</v>
@@ -2399,7 +2513,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>74</v>
@@ -2421,7 +2535,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>78</v>
@@ -2445,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>67</v>
@@ -2469,7 +2583,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>69</v>
@@ -2493,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>72</v>
@@ -2543,7 +2657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A8:I20"/>
@@ -2601,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>62</v>
@@ -2624,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>63</v>
@@ -2666,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>69</v>
@@ -2689,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>72</v>
@@ -2712,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>74</v>
@@ -2735,7 +2849,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>78</v>

--- a/TestDatas/test_apidata.xlsx
+++ b/TestDatas/test_apidata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="public" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
   <si>
     <t>conf_key</t>
   </si>
@@ -36,12 +36,18 @@
     <t>康</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>pwd</t>
   </si>
   <si>
     <t>trade</t>
   </si>
   <si>
+    <t>#{random_name}</t>
+  </si>
+  <si>
     <t>u_a</t>
   </si>
   <si>
@@ -66,7 +72,16 @@
     <t>http://httpbin.org</t>
   </si>
   <si>
-    <t>y</t>
+    <t>base_path</t>
+  </si>
+  <si>
+    <t>#{basePath}1</t>
+  </si>
+  <si>
+    <t>康2222</t>
+  </si>
+  <si>
+    <t>#{basePath}</t>
   </si>
   <si>
     <t>num</t>
@@ -130,6 +145,24 @@
   </si>
   <si>
     <t>${user}</t>
+  </si>
+  <si>
+    <t>otherUtils</t>
+  </si>
+  <si>
+    <t>date1</t>
+  </si>
+  <si>
+    <t>${user}-#{mDate}--${user}--${pwd}-</t>
+  </si>
+  <si>
+    <t>readJsonFile</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>${base_path}/TestDatas/a.json</t>
   </si>
   <si>
     <t>get_api</t>
@@ -366,31 +399,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,7 +421,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,28 +519,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -454,45 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -521,43 +554,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,139 +710,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +776,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -758,31 +806,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,6 +822,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -860,137 +893,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1060,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1388,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1416,11 +1453,13 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>1234567890</v>
@@ -1429,59 +1468,65 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>410</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
@@ -1500,7 +1545,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1525,84 +1570,82 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>1234567890</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>410</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
@@ -1618,10 +1661,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1638,34 +1681,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1673,16 +1716,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="2"/>
@@ -1694,15 +1737,17 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="2"/>
@@ -1714,15 +1759,17 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2"/>
@@ -1734,16 +1781,18 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -1755,19 +1804,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
@@ -1778,18 +1827,20 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1798,20 +1849,20 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1820,17 +1871,19 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
@@ -1840,15 +1893,21 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
@@ -1859,15 +1918,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="6"/>
@@ -1881,14 +1940,12 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="2"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -1900,16 +1957,14 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="6"/>
@@ -1923,13 +1978,13 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -1941,15 +1996,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -1961,15 +2018,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="6"/>
@@ -1980,15 +2037,17 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
@@ -1998,23 +2057,57 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2039,34 +2132,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2074,17 +2167,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
@@ -2098,13 +2191,13 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -2116,19 +2209,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
@@ -2164,34 +2257,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2199,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="2"/>
@@ -2221,19 +2314,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -2245,16 +2338,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7">
         <v>20001</v>
@@ -2269,19 +2362,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -2293,19 +2386,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -2317,19 +2410,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -2341,19 +2434,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -2393,16 +2486,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
@@ -2415,22 +2508,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -2441,16 +2534,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4">
         <v>20001</v>
@@ -2465,19 +2558,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2489,19 +2582,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2513,16 +2606,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2535,19 +2628,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2559,19 +2652,19 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
@@ -2583,19 +2676,19 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="6"/>
@@ -2607,19 +2700,19 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="6"/>
@@ -2632,16 +2725,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
@@ -2670,7 +2763,7 @@
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -2678,36 +2771,36 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2715,19 +2808,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2738,19 +2831,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2762,13 +2855,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2780,19 +2873,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2803,19 +2896,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -2826,19 +2919,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -2849,16 +2942,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7">
         <v>200</v>

--- a/TestDatas/test_apidata.xlsx
+++ b/TestDatas/test_apidata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347"/>
+    <workbookView windowWidth="22368" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="public" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="128">
   <si>
     <t>conf_key</t>
   </si>
@@ -144,7 +144,25 @@
     <t>p</t>
   </si>
   <si>
-    <t>${user}</t>
+    <t>{'c':{'d':'xioaming'}}</t>
+  </si>
+  <si>
+    <t>p.c.d</t>
+  </si>
+  <si>
+    <t>${base_path}</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>#{mTime}</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>${p}</t>
   </si>
   <si>
     <t>otherUtils</t>
@@ -171,130 +189,160 @@
     <t>s1,get</t>
   </si>
   <si>
+    <t>resp2dict</t>
+  </si>
+  <si>
+    <t>cuser</t>
+  </si>
+  <si>
+    <t>headers.Accept</t>
+  </si>
+  <si>
+    <t>duser</t>
+  </si>
+  <si>
+    <t>=kang</t>
+  </si>
+  <si>
+    <t>euser</t>
+  </si>
+  <si>
+    <t>={'c':{'d':'xioaming'}}</t>
+  </si>
+  <si>
+    <t>fuser</t>
+  </si>
+  <si>
+    <t>=#{mTime}</t>
+  </si>
+  <si>
+    <t>${cuser}</t>
+  </si>
+  <si>
+    <t>resp</t>
+  </si>
+  <si>
+    <t>post_api</t>
+  </si>
+  <si>
+    <t>s1,post</t>
+  </si>
+  <si>
+    <t>zss=${auser}</t>
+  </si>
+  <si>
+    <t>s1,get/${auser}</t>
+  </si>
+  <si>
+    <t>{'Accept11':'11*/*'}</t>
+  </si>
+  <si>
     <t>save2dict</t>
   </si>
   <si>
+    <t>buser</t>
+  </si>
+  <si>
+    <t>headers,X-Amzn-Trace-Id</t>
+  </si>
+  <si>
+    <t>assertInJson</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>118.159.231.128</t>
+  </si>
+  <si>
+    <t>assertAbsPath</t>
+  </si>
+  <si>
+    <t>headers.Host</t>
+  </si>
+  <si>
+    <t>httpbin.org</t>
+  </si>
+  <si>
+    <t>assertResp2Json</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>assertMatch2Json</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>{'Accept':'*/*'}</t>
+  </si>
+  <si>
+    <t>for_t_接</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>充1</t>
+  </si>
+  <si>
+    <t>充2</t>
+  </si>
+  <si>
+    <t>saveparam</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>xx@162.com</t>
+  </si>
+  <si>
+    <t>充3</t>
+  </si>
+  <si>
+    <t>token1xcode</t>
+  </si>
+  <si>
+    <t>充4</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>a=xxxxxx</t>
+  </si>
+  <si>
+    <t>充5</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>充6</t>
+  </si>
+  <si>
+    <t>post_pi</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>${next}</t>
+  </si>
+  <si>
+    <t>充7</t>
+  </si>
+  <si>
+    <t>basic-auth</t>
+  </si>
+  <si>
+    <t>${u_a}=${u_b}</t>
+  </si>
+  <si>
     <t>auser</t>
-  </si>
-  <si>
-    <t>=hh</t>
-  </si>
-  <si>
-    <t>post_api</t>
-  </si>
-  <si>
-    <t>s1,post</t>
-  </si>
-  <si>
-    <t>zss=${auser}</t>
-  </si>
-  <si>
-    <t>s1,get/${auser}</t>
-  </si>
-  <si>
-    <t>{'Accept11':'11*/*'}</t>
-  </si>
-  <si>
-    <t>buser</t>
-  </si>
-  <si>
-    <t>headers,X-Amzn-Trace-Id</t>
-  </si>
-  <si>
-    <t>assertInJson</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>118.159.231.128</t>
-  </si>
-  <si>
-    <t>assertAbsPath</t>
-  </si>
-  <si>
-    <t>headers.Host</t>
-  </si>
-  <si>
-    <t>httpbin.org</t>
-  </si>
-  <si>
-    <t>assertResp2Json</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>assertMatch2Json</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>{'Accept':'*/*'}</t>
-  </si>
-  <si>
-    <t>for_t_接</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>充1</t>
-  </si>
-  <si>
-    <t>充2</t>
-  </si>
-  <si>
-    <t>saveparam</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>xx@162.com</t>
-  </si>
-  <si>
-    <t>充3</t>
-  </si>
-  <si>
-    <t>token1xcode</t>
-  </si>
-  <si>
-    <t>充4</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>a=xxxxxx</t>
-  </si>
-  <si>
-    <t>充5</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>充6</t>
-  </si>
-  <si>
-    <t>post_pi</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>${next}</t>
-  </si>
-  <si>
-    <t>充7</t>
-  </si>
-  <si>
-    <t>basic-auth</t>
-  </si>
-  <si>
-    <t>${u_a}=${u_b}</t>
   </si>
   <si>
     <t>hh</t>
@@ -400,21 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +462,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -436,7 +508,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +553,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,38 +561,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,14 +574,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -554,67 +602,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,115 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,6 +824,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -787,6 +844,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,7 +887,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,39 +902,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -881,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -893,137 +941,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1062,9 +1110,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1425,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1479,7 +1526,7 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4"/>
@@ -1488,7 +1535,7 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4"/>
@@ -1497,7 +1544,7 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
@@ -1506,7 +1553,7 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1526,7 +1573,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
@@ -1545,7 +1592,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1600,7 +1647,7 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4"/>
@@ -1609,7 +1656,7 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4"/>
@@ -1618,7 +1665,7 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
@@ -1627,7 +1674,7 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4"/>
@@ -1645,7 +1692,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
@@ -1661,10 +1708,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1759,16 +1806,14 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="7"/>
@@ -1781,17 +1826,15 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="2"/>
@@ -1803,19 +1846,17 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="7"/>
@@ -1827,18 +1868,18 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
@@ -1849,18 +1890,18 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
@@ -1871,20 +1912,20 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1893,22 +1934,18 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1920,15 +1957,15 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1937,15 +1974,19 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -1955,16 +1996,20 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="6"/>
@@ -1975,16 +2020,20 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -1995,17 +2044,19 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="2"/>
@@ -2017,16 +2068,20 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="6"/>
@@ -2038,17 +2093,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2058,17 +2115,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2078,12 +2133,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
@@ -2096,18 +2155,174 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2170,14 +2385,14 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
@@ -2191,13 +2406,13 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -2212,16 +2427,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
@@ -2269,7 +2484,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -2295,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>30</v>
@@ -2317,16 +2532,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -2341,13 +2556,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7">
         <v>20001</v>
@@ -2365,16 +2580,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -2389,16 +2604,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -2413,16 +2628,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -2437,16 +2652,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -2489,7 +2704,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
@@ -2511,19 +2726,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -2537,13 +2752,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F13" s="4">
         <v>20001</v>
@@ -2561,16 +2776,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2585,16 +2800,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2609,13 +2824,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2631,16 +2846,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2655,16 +2870,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
@@ -2679,16 +2894,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="6"/>
@@ -2703,16 +2918,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="6"/>
@@ -2725,16 +2940,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
@@ -2763,7 +2978,7 @@
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -2771,7 +2986,7 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2788,7 +3003,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -2800,7 +3015,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2811,16 +3026,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2834,16 +3049,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2855,13 +3070,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2876,16 +3091,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2899,16 +3114,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -2922,16 +3137,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -2945,10 +3160,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>

--- a/TestDatas/test_apidata.xlsx
+++ b/TestDatas/test_apidata.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="public" sheetId="1" r:id="rId1"/>
     <sheet name="config_t_接" sheetId="6" r:id="rId2"/>
     <sheet name="t_接" sheetId="2" r:id="rId3"/>
-    <sheet name="for_t_接" sheetId="5" r:id="rId4"/>
-    <sheet name="t_接口py" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="t_接ks" sheetId="7" r:id="rId4"/>
+    <sheet name="for_t_接" sheetId="5" r:id="rId5"/>
+    <sheet name="t_接口py" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="160">
   <si>
     <t>conf_key</t>
   </si>
@@ -114,10 +115,13 @@
     <t>seturl</t>
   </si>
   <si>
+    <t>u1</t>
+  </si>
+  <si>
     <t>${base_url}</t>
   </si>
   <si>
-    <t>create_session</t>
+    <t>session</t>
   </si>
   <si>
     <t>s1</t>
@@ -129,106 +133,519 @@
     <t>s1,https</t>
   </si>
   <si>
+    <t>https://127.0.0.1:8080</t>
+  </si>
+  <si>
+    <t>s1,http</t>
+  </si>
+  <si>
     <t>setheader</t>
   </si>
   <si>
+    <t>s1,a</t>
+  </si>
+  <si>
+    <t>application/json1</t>
+  </si>
+  <si>
+    <t>save2dict</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>{'c':'c111','d':'xioaming'}</t>
+  </si>
+  <si>
+    <t>p.c.d</t>
+  </si>
+  <si>
+    <t>=${base_path}</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>=#{mTime}</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>={'d':'${a}','m':'${user}'}</t>
+  </si>
+  <si>
+    <t>otherUtils</t>
+  </si>
+  <si>
+    <t>date1</t>
+  </si>
+  <si>
+    <t>${user}-#{mDate}--${user}--${pwd}-</t>
+  </si>
+  <si>
+    <t>readJsonFile</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>${base_path}/TestDatas/a.json,bb_key</t>
+  </si>
+  <si>
+    <t>bb_key</t>
+  </si>
+  <si>
+    <t>get_api</t>
+  </si>
+  <si>
+    <t>u1,s1,get</t>
+  </si>
+  <si>
+    <t>${p}</t>
+  </si>
+  <si>
+    <t>resp2dict</t>
+  </si>
+  <si>
+    <t>s1_a</t>
+  </si>
+  <si>
+    <t>s1_a,euser</t>
+  </si>
+  <si>
+    <t>headers.Accept</t>
+  </si>
+  <si>
+    <t>s1_a,</t>
+  </si>
+  <si>
+    <t>fuser1</t>
+  </si>
+  <si>
+    <t>=${p}</t>
+  </si>
+  <si>
+    <t>fuser2</t>
+  </si>
+  <si>
+    <t>fuser3</t>
+  </si>
+  <si>
+    <t>=${s1_a}</t>
+  </si>
+  <si>
+    <t>fuser4</t>
+  </si>
+  <si>
+    <t>${s1_a}</t>
+  </si>
+  <si>
+    <t>assert2json</t>
+  </si>
+  <si>
+    <t>${euser}=S119</t>
+  </si>
+  <si>
+    <t>args.p=args.p</t>
+  </si>
+  <si>
+    <t>post_api</t>
+  </si>
+  <si>
+    <t>s1,post</t>
+  </si>
+  <si>
+    <t>zss=${auser}</t>
+  </si>
+  <si>
+    <t>u1,s1,get/${auser}</t>
+  </si>
+  <si>
+    <t>assertInJson</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>118.159.231.128</t>
+  </si>
+  <si>
+    <t>assertAbsPath</t>
+  </si>
+  <si>
+    <t>headers.Host</t>
+  </si>
+  <si>
+    <t>httpbin.org</t>
+  </si>
+  <si>
+    <t>assertResp2Json</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>assert_resp_json</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>{'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.27.1', 'X-Amzn-Trace-Id': 'Root=1-62ca5a2d-6ea9a166578637170ff04b84{{IGNORE}}'}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'args'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'headers'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Accept'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'*/*'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Accept-Encoding'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'gzip, deflate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Host'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'httpbin.org'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'User-Agent'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'python-requests/2.27.1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'X-Amzn-Trace-Id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Root=1-62ca5a2d-6ea9a166578637170ff04b84'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'origin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'112.42.5.7'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'url'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'http://httpbin.org/get'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>for_t_接</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
     <t>s1,Accept</t>
   </si>
   <si>
     <t>application/json</t>
   </si>
   <si>
+    <t>=xioaming</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
+    <t>{'d':'${a}','m':'${user}'}</t>
+  </si>
+  <si>
+    <t>${base_path}/TestDatas/a.json</t>
+  </si>
+  <si>
+    <t>cuser</t>
+  </si>
+  <si>
+    <t>euser</t>
+  </si>
+  <si>
+    <t>=kang</t>
+  </si>
+  <si>
+    <t>={'c':{'d':'xioaming'}}</t>
+  </si>
+  <si>
+    <t>fuser</t>
+  </si>
+  <si>
     <t>savejson</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>{'c':{'d':'xioaming'}}</t>
-  </si>
-  <si>
-    <t>p.c.d</t>
-  </si>
-  <si>
-    <t>${base_path}</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>#{mTime}</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>${p}</t>
-  </si>
-  <si>
-    <t>otherUtils</t>
-  </si>
-  <si>
-    <t>date1</t>
-  </si>
-  <si>
-    <t>${user}-#{mDate}--${user}--${pwd}-</t>
-  </si>
-  <si>
-    <t>readJsonFile</t>
-  </si>
-  <si>
-    <t>kw</t>
-  </si>
-  <si>
-    <t>${base_path}/TestDatas/a.json</t>
-  </si>
-  <si>
-    <t>get_api</t>
-  </si>
-  <si>
-    <t>s1,get</t>
-  </si>
-  <si>
-    <t>resp2dict</t>
-  </si>
-  <si>
-    <t>cuser</t>
-  </si>
-  <si>
-    <t>headers.Accept</t>
-  </si>
-  <si>
-    <t>duser</t>
-  </si>
-  <si>
-    <t>=kang</t>
-  </si>
-  <si>
-    <t>euser</t>
-  </si>
-  <si>
-    <t>={'c':{'d':'xioaming'}}</t>
-  </si>
-  <si>
-    <t>fuser</t>
-  </si>
-  <si>
-    <t>=#{mTime}</t>
-  </si>
-  <si>
     <t>${cuser}</t>
   </si>
   <si>
     <t>resp</t>
   </si>
   <si>
-    <t>post_api</t>
-  </si>
-  <si>
-    <t>s1,post</t>
-  </si>
-  <si>
-    <t>zss=${auser}</t>
+    <t>S118</t>
+  </si>
+  <si>
+    <t>S119</t>
   </si>
   <si>
     <t>s1,get/${auser}</t>
@@ -237,7 +654,7 @@
     <t>{'Accept11':'11*/*'}</t>
   </si>
   <si>
-    <t>save2dict</t>
+    <t>BUG</t>
   </si>
   <si>
     <t>buser</t>
@@ -246,40 +663,10 @@
     <t>headers,X-Amzn-Trace-Id</t>
   </si>
   <si>
-    <t>assertInJson</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>118.159.231.128</t>
-  </si>
-  <si>
-    <t>assertAbsPath</t>
-  </si>
-  <si>
-    <t>headers.Host</t>
-  </si>
-  <si>
-    <t>httpbin.org</t>
-  </si>
-  <si>
-    <t>assertResp2Json</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>assertMatch2Json</t>
   </si>
   <si>
-    <t>headers</t>
-  </si>
-  <si>
     <t>{'Accept':'*/*'}</t>
-  </si>
-  <si>
-    <t>for_t_接</t>
   </si>
   <si>
     <t>input</t>
@@ -410,12 +797,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +826,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -447,18 +840,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -468,17 +865,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,16 +879,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,7 +895,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,22 +958,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,23 +972,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,49 +1019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +1055,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,115 +1211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,15 +1259,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -848,17 +1274,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,17 +1293,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -907,17 +1322,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,10 +1364,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -941,19 +1376,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -962,116 +1397,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1110,15 +1545,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1473,7 +1939,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1526,7 +1992,7 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4"/>
@@ -1535,7 +2001,7 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4"/>
@@ -1544,7 +2010,7 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
@@ -1553,7 +2019,7 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1573,12 +2039,12 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="http://httpbin.org"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://httpbin.org" tooltip="http://httpbin.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1647,7 +2113,7 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4"/>
@@ -1656,7 +2122,7 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4"/>
@@ -1665,7 +2131,7 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
@@ -1674,7 +2140,7 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4"/>
@@ -1692,7 +2158,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
@@ -1708,10 +2174,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1760,6 +2226,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2">
+        <f>MAX($A$1:A1)+1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1771,17 +2238,19 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2">
+        <f>MAX($A$1:A2)+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1791,19 +2260,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="2"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
+        <f>MAX($A$1:A3)+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
@@ -1811,12 +2280,14 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
@@ -1824,18 +2295,21 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2">
+        <f>MAX($A$1:A4)+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -1844,28 +2318,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2">
+        <f>MAX($A$1:A5)+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
+        <f>MAX($A$1:A6)+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
@@ -1873,13 +2347,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
@@ -1888,6 +2362,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
+        <f>MAX($A$1:A7)+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
@@ -1895,13 +2370,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
@@ -1910,6 +2385,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
+        <f>MAX($A$1:A8)+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
@@ -1917,13 +2393,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="11" t="s">
         <v>47</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
@@ -1932,17 +2408,20 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
+        <f>MAX($A$1:A9)+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="14" t="s">
-        <v>48</v>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="29" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="7"/>
@@ -1952,11 +2431,12 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
+        <f>MAX($A$1:A10)+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -1972,44 +2452,44 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
+        <f>MAX($A$1:A11)+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
+        <f>MAX($A$1:A12)+1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="6"/>
@@ -2018,6 +2498,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
+        <f>MAX($A$1:A13)+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2027,14 +2508,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
@@ -2042,6 +2521,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
+        <f>MAX($A$1:A14)+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2051,14 +2531,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="19" t="s">
         <v>62</v>
       </c>
+      <c r="F15" s="25"/>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
@@ -2066,21 +2544,20 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2">
+        <f>MAX($A$1:A15)+1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="2"/>
@@ -2090,6 +2567,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
+        <f>MAX($A$1:A16)+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
@@ -2097,77 +2575,91 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="F17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2">
+        <f>MAX($A$1:A17)+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2">
+        <f>MAX($A$1:A18)+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
+        <f>MAX($A$1:A19)+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
+        <f>MAX($A$1:A20)+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
@@ -2175,53 +2667,55 @@
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2">
+        <f>MAX($A$1:A21)+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="F22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2">
+        <f>MAX($A$1:A22)+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
@@ -2230,19 +2724,18 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
+        <f>MAX($A$1:A23)+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="2"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
@@ -2250,18 +2743,21 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2">
+        <f>MAX($A$1:A24)+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="6"/>
@@ -2270,10 +2766,11 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
+        <f>MAX($A$1:A25)+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
         <v>83</v>
       </c>
@@ -2290,15 +2787,20 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2">
+        <f>MAX($A$1:A26)+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
@@ -2306,25 +2808,144 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
+        <f>MAX($A$1:A27)+1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4" t="s">
-        <v>75</v>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <f>MAX($A$1:A28)+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <f>MAX($A$1:A29)+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
+        <f>MAX($A$1:A29)+1</f>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
+        <f>MAX($A$1:A31)+1</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2">
+        <f>MAX($A$1:A32)+1</f>
+        <v>31</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <f>MAX($A$1:A33)+1</f>
+        <v>32</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://127.0.0.1:8080"/>
+    <hyperlink ref="F5" r:id="rId1" display="https://127.0.0.1:8080"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2334,10 +2955,732 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.88888888888889" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.66666666666667" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.66666666666667" style="8" customWidth="1"/>
+    <col min="4" max="5" width="18.6666666666667" style="8" customWidth="1"/>
+    <col min="6" max="6" width="36.8888888888889" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.3333333333333" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.2222222222222" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <f>MAX($A$1:A1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <f>MAX($A$1:A2)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <f>MAX($A$1:A3)+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <f>MAX($A$1:A4)+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <f>MAX($A$1:A5)+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <f>MAX($A$1:A6)+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f>MAX($A$1:A7)+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f>MAX($A$1:A8)+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f>MAX($A$1:A9)+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f>MAX($A$1:A10)+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f>MAX($A$1:A11)+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f>MAX($A$1:A12)+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f>MAX($A$1:A13)+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <f>MAX($A$1:A14)+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <f>MAX($A$1:A15)+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <f>MAX($A$1:A16)+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <f>MAX($A$1:A17)+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <f>MAX($A$1:A18)+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <f>MAX($A$1:A19)+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <f>MAX($A$1:A20)+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <f>MAX($A$1:A21)+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <f>MAX($A$1:A22)+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <f>MAX($A$1:A23)+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <f>MAX($A$1:A24)+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <f>MAX($A$1:A25)+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <f>MAX($A$1:A26)+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
+        <f>MAX($A$1:A27)+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <f>MAX($A$1:A28)+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <f>MAX($A$1:A29)+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
+        <f>MAX($A$1:A30)+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://127.0.0.1:8080"/>
+    <hyperlink ref="F5" r:id="rId1" display="https://127.0.0.1:8080"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -2385,14 +3728,14 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="7" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
@@ -2406,13 +3749,13 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -2427,16 +3770,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
@@ -2449,12 +3792,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -2484,7 +3827,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -2510,13 +3853,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="2"/>
@@ -2532,16 +3875,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -2556,13 +3899,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7">
         <v>20001</v>
@@ -2580,16 +3923,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -2604,16 +3947,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -2628,16 +3971,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -2652,16 +3995,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -2704,13 +4047,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
@@ -2726,19 +4069,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -2752,13 +4095,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F13" s="4">
         <v>20001</v>
@@ -2776,16 +4119,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2800,16 +4143,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2824,13 +4167,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2846,16 +4189,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2870,16 +4213,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
@@ -2894,16 +4237,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="6"/>
@@ -2918,16 +4261,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="6"/>
@@ -2940,16 +4283,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
@@ -2965,20 +4308,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A8:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="$A14:$XFD20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -2986,7 +4329,7 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3003,7 +4346,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -3015,7 +4358,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3026,16 +4369,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -3049,16 +4392,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -3070,13 +4413,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -3091,16 +4434,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -3114,16 +4457,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -3137,16 +4480,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -3160,10 +4503,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>

--- a/TestDatas/test_apidata.xlsx
+++ b/TestDatas/test_apidata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="163">
   <si>
     <t>conf_key</t>
   </si>
@@ -244,7 +244,7 @@
     <t>assert2json</t>
   </si>
   <si>
-    <t>${euser}=S119</t>
+    <t>${euser}=${s1_a}</t>
   </si>
   <si>
     <t>args.p=args.p</t>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -588,12 +594,18 @@
     </r>
   </si>
   <si>
-    <t>args</t>
+    <t>args22</t>
   </si>
   <si>
     <t>for_t_接</t>
   </si>
   <si>
+    <t>assert_resp_str</t>
+  </si>
+  <si>
+    <t>httpbin.org2</t>
+  </si>
+  <si>
     <t>https</t>
   </si>
   <si>
@@ -646,6 +658,9 @@
   </si>
   <si>
     <t>S119</t>
+  </si>
+  <si>
+    <t>${euser}=S119</t>
   </si>
   <si>
     <t>s1,get/${auser}</t>
@@ -2174,10 +2189,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2342,7 +2357,9 @@
         <f>MAX($A$1:A6)+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2564,9 @@
         <f>MAX($A$1:A15)+1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2704,9 @@
         <f>MAX($A$1:A21)+1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="20" t="s">
         <v>73</v>
@@ -2811,9 +2832,7 @@
         <f>MAX($A$1:A27)+1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="16" t="s">
         <v>88</v>
@@ -2834,9 +2853,7 @@
         <f>MAX($A$1:A28)+1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="16" t="s">
         <v>88</v>
@@ -2855,9 +2872,7 @@
         <f>MAX($A$1:A29)+1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="16" t="s">
         <v>88</v>
@@ -2918,9 +2933,15 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
@@ -2933,13 +2954,109 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
+        <f>MAX($A$1:A34)+1</f>
+        <v>33</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
+        <f>MAX($A$1:A35)+1</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2">
+        <f>MAX($A$1:A36)+1</f>
+        <v>35</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
+        <f>MAX($A$1:A37)+1</f>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
+        <f>MAX($A$1:A38)+1</f>
+        <v>37</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
+        <f>MAX($A$1:A39)+1</f>
+        <v>38</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3066,7 +3183,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>37</v>
@@ -3089,7 +3206,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>37</v>
@@ -3110,10 +3227,10 @@
         <v>39</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -3138,7 +3255,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
@@ -3160,7 +3277,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>46</v>
@@ -3209,7 +3326,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
@@ -3251,7 +3368,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
@@ -3294,7 +3411,7 @@
         <v>61</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>64</v>
@@ -3317,10 +3434,10 @@
         <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -3340,10 +3457,10 @@
         <v>61</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="6"/>
@@ -3363,7 +3480,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>48</v>
@@ -3383,13 +3500,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6"/>
@@ -3404,10 +3521,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="7"/>
@@ -3423,10 +3540,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="7"/>
@@ -3445,7 +3562,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>75</v>
@@ -3487,7 +3604,7 @@
         <v>58</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
@@ -3505,14 +3622,14 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
@@ -3529,10 +3646,10 @@
         <v>42</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="6"/>
@@ -3612,13 +3729,13 @@
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="6"/>
@@ -3731,11 +3848,11 @@
         <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
@@ -3752,10 +3869,10 @@
         <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -3827,7 +3944,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -3853,7 +3970,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>30</v>
@@ -3875,16 +3992,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -3899,13 +4016,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7">
         <v>20001</v>
@@ -3923,16 +4040,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -3947,16 +4064,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -3971,16 +4088,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -3995,16 +4112,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -4047,7 +4164,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
@@ -4069,19 +4186,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -4095,13 +4212,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F13" s="4">
         <v>20001</v>
@@ -4119,16 +4236,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -4143,13 +4260,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>78</v>
@@ -4167,13 +4284,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -4189,16 +4306,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -4213,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>80</v>
@@ -4222,7 +4339,7 @@
         <v>81</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
@@ -4237,7 +4354,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>83</v>
@@ -4261,7 +4378,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>86</v>
@@ -4283,16 +4400,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
@@ -4321,7 +4438,7 @@
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -4329,7 +4446,7 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4346,7 +4463,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -4358,7 +4475,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4369,16 +4486,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -4392,16 +4509,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -4413,13 +4530,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -4434,16 +4551,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -4457,16 +4574,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -4480,16 +4597,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -4503,10 +4620,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>

--- a/TestDatas/test_apidata.xlsx
+++ b/TestDatas/test_apidata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="164">
   <si>
     <t>conf_key</t>
   </si>
@@ -241,7 +241,7 @@
     <t>${s1_a}</t>
   </si>
   <si>
-    <t>assert2json</t>
+    <t>assert_json</t>
   </si>
   <si>
     <t>${euser}=${s1_a}</t>
@@ -286,7 +286,7 @@
     <t>all</t>
   </si>
   <si>
-    <t>assert_resp_json</t>
+    <t>assert_resp</t>
   </si>
   <si>
     <t>headers</t>
@@ -600,10 +600,10 @@
     <t>for_t_接</t>
   </si>
   <si>
-    <t>assert_resp_str</t>
-  </si>
-  <si>
-    <t>httpbin.org2</t>
+    <t>${s1_a}=${s1_a}</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
   <si>
     <t>https</t>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>S119</t>
+  </si>
+  <si>
+    <t>assert2json</t>
   </si>
   <si>
     <t>${euser}=S119</t>
@@ -2191,8 +2194,8 @@
   <sheetPr/>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2934,7 +2937,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>84</v>
@@ -2955,13 +2958,13 @@
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="6"/>
@@ -2973,11 +2976,17 @@
         <f>MAX($A$1:A34)+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="21"/>
       <c r="G35" s="2"/>
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
@@ -2988,11 +2997,17 @@
         <f>MAX($A$1:A35)+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="21"/>
       <c r="G36" s="2"/>
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
@@ -3003,11 +3018,19 @@
         <f>MAX($A$1:A36)+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
@@ -3018,11 +3041,19 @@
         <f>MAX($A$1:A37)+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
@@ -3559,10 +3590,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="20" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>75</v>
@@ -3604,7 +3635,7 @@
         <v>58</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
@@ -3626,10 +3657,10 @@
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
@@ -3646,10 +3677,10 @@
         <v>42</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="6"/>
@@ -3729,13 +3760,13 @@
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="6"/>
@@ -3852,7 +3883,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
@@ -3869,10 +3900,10 @@
         <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -3944,7 +3975,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -3970,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>30</v>
@@ -3992,16 +4023,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -4016,13 +4047,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7">
         <v>20001</v>
@@ -4040,16 +4071,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -4064,16 +4095,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -4088,16 +4119,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -4112,16 +4143,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -4164,7 +4195,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
@@ -4186,19 +4217,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -4212,13 +4243,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F13" s="4">
         <v>20001</v>
@@ -4236,16 +4267,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -4260,13 +4291,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>78</v>
@@ -4284,13 +4315,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -4306,16 +4337,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -4330,7 +4361,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>80</v>
@@ -4339,7 +4370,7 @@
         <v>81</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
@@ -4354,7 +4385,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>83</v>
@@ -4378,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>86</v>
@@ -4400,16 +4431,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6"/>
@@ -4438,7 +4469,7 @@
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -4446,7 +4477,7 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4463,7 +4494,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -4475,7 +4506,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4486,16 +4517,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -4509,16 +4540,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -4530,13 +4561,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -4551,16 +4582,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -4574,16 +4605,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -4597,16 +4628,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -4620,10 +4651,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
